--- a/R/analysis/data/Pt_27_Experimental.xlsx
+++ b/R/analysis/data/Pt_27_Experimental.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O2" t="n">
         <v>0.35</v>
@@ -574,7 +574,7 @@
         <v>2.06</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.25</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>0.96</v>
@@ -631,16 +631,16 @@
         <v>1.97</v>
       </c>
       <c r="K4" t="n">
-        <v>5.03</v>
+        <v>0.43</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3</v>
+        <v>3.55</v>
       </c>
       <c r="M4" t="n">
-        <v>4.42</v>
+        <v>1.59</v>
       </c>
       <c r="N4" t="n">
-        <v>1.12</v>
+        <v>3.12</v>
       </c>
       <c r="O4" t="n">
         <v>0.08</v>
@@ -696,7 +696,7 @@
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>0.89</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
         <v>0.58</v>
@@ -807,16 +807,16 @@
         <v>2.98</v>
       </c>
       <c r="K7" t="n">
-        <v>4.87</v>
+        <v>0.22</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.16</v>
+        <v>3.45</v>
       </c>
       <c r="M7" t="n">
-        <v>3.3</v>
+        <v>0.47</v>
       </c>
       <c r="N7" t="n">
-        <v>0.33</v>
+        <v>2.34</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -872,7 +872,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -926,7 +926,7 @@
         <v>0.96</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="M9" t="n">
         <v>0.5</v>
@@ -983,16 +983,16 @@
         <v>2.57</v>
       </c>
       <c r="K10" t="n">
-        <v>3.61</v>
+        <v>0.43</v>
       </c>
       <c r="L10" t="n">
-        <v>0.3</v>
+        <v>2.55</v>
       </c>
       <c r="M10" t="n">
-        <v>2.65</v>
+        <v>1.24</v>
       </c>
       <c r="N10" t="n">
-        <v>0.88</v>
+        <v>1.88</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>0.35</v>
@@ -1102,7 +1102,7 @@
         <v>1.51</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1159,16 +1159,16 @@
         <v>6.72</v>
       </c>
       <c r="K13" t="n">
-        <v>4.62</v>
+        <v>0.84</v>
       </c>
       <c r="L13" t="n">
-        <v>0.6</v>
+        <v>3.26</v>
       </c>
       <c r="M13" t="n">
-        <v>4.24</v>
+        <v>1.41</v>
       </c>
       <c r="N13" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
         <v>0.08</v>
@@ -1278,7 +1278,7 @@
         <v>1.52</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1333,10 +1333,10 @@
         <v>2.07</v>
       </c>
       <c r="K16" t="n">
-        <v>5.11</v>
+        <v>0.01</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01</v>
+        <v>3.61</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1448,7 +1448,7 @@
         <v>1.6</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.38</v>
+        <v>3.38</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1501,10 +1501,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>4.86</v>
+        <v>0.08</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06</v>
+        <v>3.44</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="e">
@@ -1618,7 +1618,7 @@
         <v>0.5</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.25</v>
+        <v>2.25</v>
       </c>
       <c r="M21" t="n">
         <v>0.5</v>
@@ -1673,10 +1673,10 @@
         <v>2.77</v>
       </c>
       <c r="K22" t="n">
-        <v>5.21</v>
+        <v>2.03</v>
       </c>
       <c r="L22" t="n">
-        <v>1.44</v>
+        <v>3.68</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1790,7 +1790,7 @@
         <v>0.58</v>
       </c>
       <c r="L24" t="n">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
         <v>0.96</v>
@@ -1845,10 +1845,10 @@
         <v>2.31</v>
       </c>
       <c r="K25" t="n">
-        <v>3.62</v>
+        <v>1.5</v>
       </c>
       <c r="L25" t="n">
-        <v>1.06</v>
+        <v>2.56</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1962,7 +1962,7 @@
         <v>1.3</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.8</v>
+        <v>1.8</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
@@ -2017,10 +2017,10 @@
         <v>2.54</v>
       </c>
       <c r="K28" t="n">
-        <v>3.83</v>
+        <v>1.29</v>
       </c>
       <c r="L28" t="n">
-        <v>0.91</v>
+        <v>2.71</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
